--- a/SchedulingData/static4/pso/scheduling1_16.xlsx
+++ b/SchedulingData/static4/pso/scheduling1_16.xlsx
@@ -462,40 +462,40 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond52</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>43.1</v>
+        <v>54.92</v>
       </c>
       <c r="E2" t="n">
-        <v>26.88</v>
+        <v>27.168</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>82.09999999999999</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>24.96</v>
+        <v>26.52</v>
       </c>
     </row>
     <row r="4">
@@ -504,283 +504,283 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>43.1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>76.7</v>
+        <v>76.12</v>
       </c>
       <c r="E4" t="n">
-        <v>24.16</v>
+        <v>24.568</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>88.90000000000001</v>
+        <v>66.44</v>
       </c>
       <c r="E5" t="n">
-        <v>24.3</v>
+        <v>26.016</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>82.09999999999999</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>120.44</v>
+        <v>71.54000000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>22.256</v>
+        <v>25.996</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>61.22</v>
+        <v>68.56</v>
       </c>
       <c r="E7" t="n">
-        <v>26.568</v>
+        <v>26.304</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>76.7</v>
+        <v>71.54000000000001</v>
       </c>
       <c r="D8" t="n">
-        <v>134.4</v>
+        <v>118.74</v>
       </c>
       <c r="E8" t="n">
-        <v>20.52</v>
+        <v>21.916</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>68.56</v>
       </c>
       <c r="D9" t="n">
-        <v>73.62</v>
+        <v>136.18</v>
       </c>
       <c r="E9" t="n">
-        <v>25.788</v>
+        <v>22.652</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>88.90000000000001</v>
+        <v>54.92</v>
       </c>
       <c r="D10" t="n">
-        <v>151.1</v>
+        <v>119.98</v>
       </c>
       <c r="E10" t="n">
-        <v>21.66</v>
+        <v>21.792</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>76.12</v>
       </c>
       <c r="D11" t="n">
-        <v>63.56</v>
+        <v>144.42</v>
       </c>
       <c r="E11" t="n">
-        <v>26.304</v>
+        <v>18.868</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>120.44</v>
+        <v>144.42</v>
       </c>
       <c r="D12" t="n">
-        <v>181.58</v>
+        <v>187.02</v>
       </c>
       <c r="E12" t="n">
-        <v>18.252</v>
+        <v>15.748</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>61.22</v>
+        <v>66.44</v>
       </c>
       <c r="D13" t="n">
-        <v>160.42</v>
+        <v>119.86</v>
       </c>
       <c r="E13" t="n">
-        <v>21.248</v>
+        <v>21.804</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>160.42</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="D14" t="n">
-        <v>210.22</v>
+        <v>170.5</v>
       </c>
       <c r="E14" t="n">
-        <v>18.408</v>
+        <v>21.2</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>181.58</v>
+        <v>118.74</v>
       </c>
       <c r="D15" t="n">
-        <v>239.3</v>
+        <v>171.34</v>
       </c>
       <c r="E15" t="n">
-        <v>14.6</v>
+        <v>19.276</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>63.56</v>
+        <v>119.98</v>
       </c>
       <c r="D16" t="n">
-        <v>114.8</v>
+        <v>191.58</v>
       </c>
       <c r="E16" t="n">
-        <v>22.32</v>
+        <v>16.752</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>134.4</v>
+        <v>119.86</v>
       </c>
       <c r="D17" t="n">
-        <v>220.12</v>
+        <v>154.66</v>
       </c>
       <c r="E17" t="n">
-        <v>15.088</v>
+        <v>18.964</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>114.8</v>
+        <v>154.66</v>
       </c>
       <c r="D18" t="n">
-        <v>176.1</v>
+        <v>198.58</v>
       </c>
       <c r="E18" t="n">
-        <v>18.8</v>
+        <v>16.192</v>
       </c>
     </row>
     <row r="19">
@@ -789,93 +789,93 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>73.62</v>
+        <v>198.58</v>
       </c>
       <c r="D19" t="n">
-        <v>148.78</v>
+        <v>244.84</v>
       </c>
       <c r="E19" t="n">
-        <v>20.412</v>
+        <v>13.696</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>151.1</v>
+        <v>171.34</v>
       </c>
       <c r="D20" t="n">
-        <v>208.3</v>
+        <v>212.78</v>
       </c>
       <c r="E20" t="n">
-        <v>18.54</v>
+        <v>15.772</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond52</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>208.3</v>
+        <v>170.5</v>
       </c>
       <c r="D21" t="n">
-        <v>247.92</v>
+        <v>228.64</v>
       </c>
       <c r="E21" t="n">
-        <v>15.708</v>
+        <v>18.496</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>247.92</v>
+        <v>187.02</v>
       </c>
       <c r="D22" t="n">
-        <v>330.12</v>
+        <v>220.62</v>
       </c>
       <c r="E22" t="n">
-        <v>12.588</v>
+        <v>13.028</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>239.3</v>
+        <v>136.18</v>
       </c>
       <c r="D23" t="n">
-        <v>280.5</v>
+        <v>187.78</v>
       </c>
       <c r="E23" t="n">
-        <v>11.12</v>
+        <v>19.132</v>
       </c>
     </row>
     <row r="24">
@@ -884,93 +884,93 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>210.22</v>
+        <v>212.78</v>
       </c>
       <c r="D24" t="n">
-        <v>249.84</v>
+        <v>279.38</v>
       </c>
       <c r="E24" t="n">
-        <v>16.076</v>
+        <v>13.692</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>220.12</v>
+        <v>228.64</v>
       </c>
       <c r="D25" t="n">
-        <v>290.92</v>
+        <v>281.44</v>
       </c>
       <c r="E25" t="n">
-        <v>11.128</v>
+        <v>14.856</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>249.84</v>
+        <v>187.78</v>
       </c>
       <c r="D26" t="n">
-        <v>316.18</v>
+        <v>259.68</v>
       </c>
       <c r="E26" t="n">
-        <v>12.572</v>
+        <v>16.012</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>280.5</v>
+        <v>259.68</v>
       </c>
       <c r="D27" t="n">
-        <v>337.1</v>
+        <v>356.28</v>
       </c>
       <c r="E27" t="n">
-        <v>9.039999999999999</v>
+        <v>12.932</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>176.1</v>
+        <v>191.58</v>
       </c>
       <c r="D28" t="n">
-        <v>248.1</v>
+        <v>252.28</v>
       </c>
       <c r="E28" t="n">
-        <v>14.72</v>
+        <v>12.792</v>
       </c>
     </row>
     <row r="29">
@@ -979,36 +979,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>290.92</v>
+        <v>220.62</v>
       </c>
       <c r="D29" t="n">
-        <v>339.74</v>
+        <v>280.58</v>
       </c>
       <c r="E29" t="n">
-        <v>8.356</v>
+        <v>8.672000000000001</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>339.74</v>
+        <v>279.38</v>
       </c>
       <c r="D30" t="n">
-        <v>390.68</v>
+        <v>320.1</v>
       </c>
       <c r="E30" t="n">
-        <v>5.392</v>
+        <v>10.26</v>
       </c>
     </row>
     <row r="31">
@@ -1017,55 +1017,55 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>148.78</v>
+        <v>244.84</v>
       </c>
       <c r="D31" t="n">
-        <v>238.34</v>
+        <v>287.34</v>
       </c>
       <c r="E31" t="n">
-        <v>16.056</v>
+        <v>10.576</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>330.12</v>
+        <v>280.58</v>
       </c>
       <c r="D32" t="n">
-        <v>396.28</v>
+        <v>334.8</v>
       </c>
       <c r="E32" t="n">
-        <v>10.092</v>
+        <v>6.34</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>238.34</v>
+        <v>281.44</v>
       </c>
       <c r="D33" t="n">
-        <v>325.04</v>
+        <v>317.48</v>
       </c>
       <c r="E33" t="n">
-        <v>12.976</v>
+        <v>11.892</v>
       </c>
     </row>
   </sheetData>
